--- a/Data/vitamin.xlsx
+++ b/Data/vitamin.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Sujet</t>
+  </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -36,6 +39,27 @@
   </si>
   <si>
     <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ß-Carotin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitamin C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,25-dihydroxyvitamine D</t>
   </si>
 </sst>
 </file>
@@ -392,186 +416,210 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
         <v>511.5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>515.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>411.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>656.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>434</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>525.5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>474.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>520.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
         <v>338.5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>499.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>228.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>360</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>628.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>662</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>714</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>958.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
         <v>10.7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>7.785</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>9.285</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>7.795</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.365</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>8.28</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>10.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>11.75</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
         <v>8.84</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>13.55</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>13.65</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>17.6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.45</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>11.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13</v>
       </c>
       <c r="H5" t="n">
         <v>13</v>
       </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
         <v>336.5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>275.5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>525</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>604.5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>493</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>503</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>357.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>493.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
         <v>11.85</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>13.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>7.015</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>10.65</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>10.7</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>11.35</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>17.25</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>11.15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
         <v>24.35</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>34.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>37.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>36.55</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>33.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>15.24</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>28</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>26.75</v>
       </c>
     </row>
